--- a/Snap7/src/tags/s7-tags-s2-p2.xlsx
+++ b/Snap7/src/tags/s7-tags-s2-p2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4CEC49-3545-498F-9052-906847A29434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9642D301-E427-4FE2-8B85-1EF474621663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <definedName name="type">data!$B$2:$B$6</definedName>
     <definedName name="type_r">data!$B$3:$B$6</definedName>
     <definedName name="Word">data!$E$2:$E$4</definedName>
+    <definedName name="WordWord_As_BitArray">data!$E$15:$E$114</definedName>
     <definedName name="WordWord_As_Int">data!$F$15:$F$114</definedName>
     <definedName name="WordWord_As_Uint">data!$G$15:$G$114</definedName>
     <definedName name="WordWordAs_BitArray">data!$E$15:$E$114</definedName>
@@ -665,7 +666,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,19 +754,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>102</v>
       </c>
       <c r="E5" s="3">
+        <v>310</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
         <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
@@ -779,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>102</v>
@@ -811,13 +812,13 @@
         <v>102</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -834,10 +835,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -13423,8 +13424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95CE504-85C2-4F9A-B1EB-B41DC58DD57D}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16765,7 +16766,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="035wU+rLzWYNSVbG1g5iI25+PX6rx8em/i3lkl+irnZ003e6/uRW0GXDaUiv3mV2J3p3yYhbQAtOIZE/jp05dQ==" saltValue="sIzG7G6Q/++4+ClrO+xJTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+1xNOn5+Cw34Pw4DElFMgrNV/LEb9FK3fb2G/4JHBQR9UQTYyNxzHy7PeXwvSgQvxXGzKy3djHF3SA5Nzzrj+Q==" saltValue="i8TYg22ayNhccdOcXhJZOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
